--- a/res/testcase/statisticalAnalysis/handoverReport.xlsx
+++ b/res/testcase/statisticalAnalysis/handoverReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10365" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="114">
   <si>
     <t>动作</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>2导出界面</t>
+  </si>
+  <si>
+    <t>点击搜索按钮</t>
+  </si>
+  <si>
+    <t>HandoverReportPage.搜索按钮</t>
   </si>
   <si>
     <t>HandoverReportPage.记录列表</t>
@@ -362,8 +368,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -383,6 +389,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -391,24 +404,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -429,19 +440,41 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -453,22 +486,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -483,23 +503,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -513,15 +525,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,187 +548,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -782,17 +788,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,15 +805,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,11 +826,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +856,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,137 +887,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1022,6 +1028,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1404,8 +1413,8 @@
   <sheetPr/>
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1415,270 +1424,270 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="7" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="6"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="8"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="8" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="8" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1694,7 +1703,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1702,7 +1711,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="7" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1710,7 +1719,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="7" t="s">
         <v>23</v>
       </c>
     </row>
@@ -1718,31 +1727,31 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="8" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="8" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1764,7 +1773,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1945,17 +1954,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="26" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="41.125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
@@ -2054,39 +2063,57 @@
     </row>
     <row r="7" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A7" s="3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>111</v>
       </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A8" s="3" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
         <v>109</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C7 C8 C2:C3 C9:C10">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C8 C9 C2:C3 C10:C11">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>

--- a/res/testcase/statisticalAnalysis/handoverReport.xlsx
+++ b/res/testcase/statisticalAnalysis/handoverReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="9840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -368,10 +368,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -390,22 +390,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,6 +406,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -441,6 +441,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -455,14 +487,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -471,16 +495,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,32 +511,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -532,6 +525,13 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -548,6 +548,78 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -578,145 +650,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -770,41 +770,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,11 +794,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -859,6 +835,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -875,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -887,133 +887,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1772,8 +1772,8 @@
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1956,8 +1956,8 @@
   <sheetPr/>
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2109,11 +2109,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C8 C9 C2:C3 C10:C11">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C4 C5 C6 C7 C8 C9 C2:C3 C10:C11">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
